--- a/Output_code/Data/Table_3_and_Appendix_H_none_granted.xlsx
+++ b/Output_code/Data/Table_3_and_Appendix_H_none_granted.xlsx
@@ -80,10 +80,10 @@
     <t xml:space="preserve">NoPatentsYearGUOtotal</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
   </si>
   <si>
     <t xml:space="preserve">UniqueCodes</t>
@@ -557,25 +557,25 @@
         <v>1.16304117147708</v>
       </c>
       <c r="B2" t="n">
-        <v>0.489945546161729</v>
+        <v>0.498228515179819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.357080748041036</v>
+        <v>0.343455264006277</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96900159491312</v>
+        <v>1.98262707894788</v>
       </c>
       <c r="E2" t="n">
-        <v>0.202747901000091</v>
+        <v>0.186513281724634</v>
       </c>
       <c r="F2" t="n">
-        <v>2.12333444195407</v>
+        <v>2.13956906122953</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0990585554355339</v>
+        <v>-0.120395483626135</v>
       </c>
       <c r="H2" t="n">
-        <v>2.42514089838969</v>
+        <v>2.44647782658029</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -598,25 +598,25 @@
         <v>0.554894668234565</v>
       </c>
       <c r="B3" t="n">
-        <v>0.363200480047954</v>
+        <v>0.351646952132582</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0425701214443202</v>
+        <v>-0.023564568023532</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15235945791345</v>
+        <v>1.13335390449266</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.156978272659426</v>
+        <v>-0.134333357945295</v>
       </c>
       <c r="F3" t="n">
-        <v>1.26676760912856</v>
+        <v>1.24412269441443</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.380709768368966</v>
+        <v>-0.350947880458966</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4904991048381</v>
+        <v>1.4607372169281</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -639,25 +639,25 @@
         <v>0.0645203473166649</v>
       </c>
       <c r="B4" t="n">
-        <v>0.323159195403538</v>
+        <v>0.315753021843558</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.467076529122156</v>
+        <v>-0.454893373615988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.596117223755486</v>
+        <v>0.583934068249318</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.56887167567427</v>
+        <v>-0.554355575496709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6979123703076</v>
+        <v>0.683396270130038</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.76793774004285</v>
+        <v>-0.74885943695234</v>
       </c>
       <c r="H4" t="n">
-        <v>0.89697843467618</v>
+        <v>0.87790013158567</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -680,25 +680,25 @@
         <v>-1.29728300156919</v>
       </c>
       <c r="B5" t="n">
-        <v>2.67960501411524</v>
+        <v>2.58317635553724</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.70523324978877</v>
+        <v>-5.54660810642795</v>
       </c>
       <c r="D5" t="n">
-        <v>3.11066724665038</v>
+        <v>2.95204210328956</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.54930882923507</v>
+        <v>-6.36030865842218</v>
       </c>
       <c r="F5" t="n">
-        <v>3.95474282609668</v>
+        <v>3.7657426552838</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.19994551793006</v>
+        <v>-7.95154529343312</v>
       </c>
       <c r="H5" t="n">
-        <v>5.60537951479167</v>
+        <v>5.35697929029473</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -721,25 +721,25 @@
         <v>1.35316997495421</v>
       </c>
       <c r="B6" t="n">
-        <v>2.6030954294647</v>
+        <v>2.84918337745342</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.92892200651523</v>
+        <v>-3.33373668095667</v>
       </c>
       <c r="D6" t="n">
-        <v>5.63526195642365</v>
+        <v>6.04007663086508</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.74889706679661</v>
+        <v>-4.2312294448545</v>
       </c>
       <c r="F6" t="n">
-        <v>6.45523701670503</v>
+        <v>6.93756939476291</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.35240385134687</v>
+        <v>-5.9863264053658</v>
       </c>
       <c r="H6" t="n">
-        <v>8.05874380125528</v>
+        <v>8.69266635527422</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -762,28 +762,28 @@
         <v>12.6233855650522</v>
       </c>
       <c r="B7" t="n">
-        <v>8.02466079827865</v>
+        <v>7.53011256165978</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.577181448116146</v>
+        <v>0.2363504011219</v>
       </c>
       <c r="D7" t="n">
-        <v>25.8239525782206</v>
+        <v>25.0104207289826</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.10494959957392</v>
+        <v>-2.13563505580093</v>
       </c>
       <c r="F7" t="n">
-        <v>28.3517207296784</v>
+        <v>27.3824061859054</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.04814065131357</v>
+        <v>-6.77418439378335</v>
       </c>
       <c r="H7" t="n">
-        <v>33.294911781418</v>
+        <v>32.0209555238878</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
@@ -803,25 +803,25 @@
         <v>0.0701892391509261</v>
       </c>
       <c r="B8" t="n">
-        <v>0.179798223945853</v>
+        <v>0.185456095849883</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.225578839240003</v>
+        <v>-0.234886038522131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.365957317541855</v>
+        <v>0.375264516823983</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.282215279782947</v>
+        <v>-0.293304708714844</v>
       </c>
       <c r="F8" t="n">
-        <v>0.422593758084799</v>
+        <v>0.433683187016696</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.392970985733592</v>
+        <v>-0.407545663758371</v>
       </c>
       <c r="H8" t="n">
-        <v>0.533349464035444</v>
+        <v>0.547924142060224</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -844,25 +844,25 @@
         <v>0.625817726440133</v>
       </c>
       <c r="B9" t="n">
-        <v>0.312696457603257</v>
+        <v>0.315819854082427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111432053682776</v>
+        <v>0.106294066474541</v>
       </c>
       <c r="D9" t="n">
-        <v>1.14020339919749</v>
+        <v>1.14534138640573</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0129326695377499</v>
+        <v>0.00681081243857629</v>
       </c>
       <c r="F9" t="n">
-        <v>1.23870278334252</v>
+        <v>1.24482464044169</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.179688348345856</v>
+        <v>-0.187734217676199</v>
       </c>
       <c r="H9" t="n">
-        <v>1.43132380122612</v>
+        <v>1.43936967055647</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -871,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -885,25 +885,25 @@
         <v>1.4570987654321</v>
       </c>
       <c r="B10" t="n">
-        <v>0.685285043318047</v>
+        <v>0.632627953220439</v>
       </c>
       <c r="C10" t="n">
-        <v>0.329804869173911</v>
+        <v>0.416425782384477</v>
       </c>
       <c r="D10" t="n">
-        <v>2.58439266169029</v>
+        <v>2.49777174847972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.113940080528726</v>
+        <v>0.217147977120039</v>
       </c>
       <c r="F10" t="n">
-        <v>2.80025745033547</v>
+        <v>2.69704955374416</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.308195506155191</v>
+        <v>-0.172550842063751</v>
       </c>
       <c r="H10" t="n">
-        <v>3.22239303701939</v>
+        <v>3.08674837292795</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -912,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -926,28 +926,28 @@
         <v>0.0932032647355112</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0566300053233237</v>
+        <v>0.0548829277913071</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0000469059786436798</v>
+        <v>0.00292084851881103</v>
       </c>
       <c r="D11" t="n">
-        <v>0.186359623492379</v>
+        <v>0.183485680952211</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0177915456982033</v>
+        <v>-0.0143672737354507</v>
       </c>
       <c r="F11" t="n">
-        <v>0.204198075169226</v>
+        <v>0.200773803206473</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0526756289773707</v>
+        <v>-0.0481751572548959</v>
       </c>
       <c r="H11" t="n">
-        <v>0.239082158448393</v>
+        <v>0.234581686725918</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -967,25 +967,25 @@
         <v>0.0838683127572016</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0744957336031558</v>
+        <v>0.075367684183932</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0386771690199896</v>
+        <v>-0.0401115277253666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.206413794534393</v>
+        <v>0.20784815323977</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0621433251049836</v>
+        <v>-0.0638523482433051</v>
       </c>
       <c r="F12" t="n">
-        <v>0.229879950619387</v>
+        <v>0.231588973757708</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.108032697004528</v>
+        <v>-0.110278841700607</v>
       </c>
       <c r="H12" t="n">
-        <v>0.275769322518931</v>
+        <v>0.278015467215011</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1008,25 +1008,25 @@
         <v>0.235400650502661</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0990576892968847</v>
+        <v>0.098577374365055</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0724507516092858</v>
+        <v>0.0732408696721457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398350549396036</v>
+        <v>0.397560431333177</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0412475794807671</v>
+        <v>0.0421889967471534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.429553721524555</v>
+        <v>0.428612304258169</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0197719571261138</v>
+        <v>-0.0185346658617205</v>
       </c>
       <c r="H13" t="n">
-        <v>0.490573258131436</v>
+        <v>0.489335966867043</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -1049,25 +1049,25 @@
         <v>0.083770207575228</v>
       </c>
       <c r="B14" t="n">
-        <v>0.45540454845775</v>
+        <v>0.464687573119094</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.665370274637771</v>
+        <v>-0.680640850205682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.832910689788227</v>
+        <v>0.848181265356138</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.808822707401962</v>
+        <v>-0.827017435738196</v>
       </c>
       <c r="F14" t="n">
-        <v>0.976363122552418</v>
+        <v>0.994557850888652</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.08935190925194</v>
+        <v>-1.11326498077956</v>
       </c>
       <c r="H14" t="n">
-        <v>1.25689232440239</v>
+        <v>1.28080539593001</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1090,25 +1090,25 @@
         <v>1.6585768175583</v>
       </c>
       <c r="B15" t="n">
-        <v>0.789367822838825</v>
+        <v>0.749519415466409</v>
       </c>
       <c r="C15" t="n">
-        <v>0.360066748988432</v>
+        <v>0.425617379116056</v>
       </c>
       <c r="D15" t="n">
-        <v>2.95708688612817</v>
+        <v>2.89153625600054</v>
       </c>
       <c r="E15" t="n">
-        <v>0.111415884794202</v>
+        <v>0.189518763244137</v>
       </c>
       <c r="F15" t="n">
-        <v>3.2057377503224</v>
+        <v>3.12763487187246</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.374834694074514</v>
+        <v>-0.272185196683171</v>
       </c>
       <c r="H15" t="n">
-        <v>3.69198832919111</v>
+        <v>3.58933883179977</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1131,25 +1131,25 @@
         <v>3.14614133648729</v>
       </c>
       <c r="B16" t="n">
-        <v>1.35482782171691</v>
+        <v>1.22165617112528</v>
       </c>
       <c r="C16" t="n">
-        <v>0.917449569762976</v>
+        <v>1.13651693498619</v>
       </c>
       <c r="D16" t="n">
-        <v>5.3748331032116</v>
+        <v>5.15576573798838</v>
       </c>
       <c r="E16" t="n">
-        <v>0.490678805922151</v>
+        <v>0.751695241081729</v>
       </c>
       <c r="F16" t="n">
-        <v>5.80160386705242</v>
+        <v>5.54058743189284</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.343895132255463</v>
+        <v>-0.000844960331446654</v>
       </c>
       <c r="H16" t="n">
-        <v>6.63617780523004</v>
+        <v>6.29312763330602</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1172,28 +1172,28 @@
         <v>-0.0319204503931948</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0165645964671803</v>
+        <v>0.0180423959330387</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0591692115817063</v>
+        <v>-0.0616001917030434</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00467168920468321</v>
+        <v>-0.00224070908334618</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0643870594688681</v>
+        <v>-0.0672835464219506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000546158682478572</v>
+        <v>0.00344264563556099</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0745908508926512</v>
+        <v>-0.0783976623167024</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0107499501062616</v>
+        <v>0.0145567615303128</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1213,25 +1213,25 @@
         <v>-0.015231976988692</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0106340643834991</v>
+        <v>0.0098887288230895</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0327250128995481</v>
+        <v>-0.0314989359026742</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00226105892216409</v>
+        <v>0.00103498192529023</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0360747431803503</v>
+        <v>-0.0346138854819474</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00561078920296632</v>
+        <v>0.00414993150456342</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0426253268405858</v>
+        <v>-0.0407053424369705</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0121613728632018</v>
+        <v>0.0102413884595866</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1254,25 +1254,25 @@
         <v>-0.0106034140705326</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00885955758251353</v>
+        <v>0.00881181267494987</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0251773862937674</v>
+        <v>-0.0250988459208251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00397055815270217</v>
+        <v>0.00389201777975994</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0279681469322591</v>
+        <v>-0.0278745669134343</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00676131879119393</v>
+        <v>0.00666773877236915</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0334256344030875</v>
+        <v>-0.0333026435212035</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0122188062620223</v>
+        <v>0.0120958153801383</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1295,25 +1295,25 @@
         <v>0.086088491645341</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0616831547556643</v>
+        <v>0.0648118508293733</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0153802979277268</v>
+        <v>-0.020527002968978</v>
       </c>
       <c r="D20" t="n">
-        <v>0.187557281218409</v>
+        <v>0.19270398625966</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0348104916757611</v>
+        <v>-0.0409427359802306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.206987474966443</v>
+        <v>0.213119719270913</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0728073150052503</v>
+        <v>-0.0808668360911245</v>
       </c>
       <c r="H20" t="n">
-        <v>0.244984298295932</v>
+        <v>0.253043819381806</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1336,25 +1336,25 @@
         <v>0.0750872908063464</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0343103676309588</v>
+        <v>0.0356620162892947</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0186467360534192</v>
+        <v>0.0164232740104567</v>
       </c>
       <c r="D21" t="n">
-        <v>0.131527845559274</v>
+        <v>0.133751307602236</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00783897024966715</v>
+        <v>0.00518973887932893</v>
       </c>
       <c r="F21" t="n">
-        <v>0.142335611363026</v>
+        <v>0.144984842733364</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0132962162110035</v>
+        <v>-0.0167780631548766</v>
       </c>
       <c r="H21" t="n">
-        <v>0.163470797823696</v>
+        <v>0.166952644767569</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1377,28 +1377,28 @@
         <v>0.0877334803528469</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0453792530197797</v>
+        <v>0.0477776226275642</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0130846091353093</v>
+        <v>0.00913929113050369</v>
       </c>
       <c r="D22" t="n">
-        <v>0.162382351570384</v>
+        <v>0.16632766957519</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00120985556592131</v>
+        <v>-0.00591065999717905</v>
       </c>
       <c r="F22" t="n">
-        <v>0.176676816271615</v>
+        <v>0.181377620702873</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0291634754261056</v>
+        <v>-0.0353416755357586</v>
       </c>
       <c r="H22" t="n">
-        <v>0.204630436131799</v>
+        <v>0.210808636241452</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -1418,25 +1418,25 @@
         <v>0.398251236571317</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0441839979506926</v>
+        <v>0.0425113852319713</v>
       </c>
       <c r="C23" t="n">
-        <v>0.325568559942428</v>
+        <v>0.328320007864724</v>
       </c>
       <c r="D23" t="n">
-        <v>0.470933913200206</v>
+        <v>0.46818246527791</v>
       </c>
       <c r="E23" t="n">
-        <v>0.311650600587959</v>
+        <v>0.314928921516653</v>
       </c>
       <c r="F23" t="n">
-        <v>0.484851872554675</v>
+        <v>0.481573551625981</v>
       </c>
       <c r="G23" t="n">
-        <v>0.284433257850333</v>
+        <v>0.288741908213759</v>
       </c>
       <c r="H23" t="n">
-        <v>0.512069215292301</v>
+        <v>0.507760564928875</v>
       </c>
       <c r="I23" t="s">
         <v>28</v>
@@ -1459,25 +1459,25 @@
         <v>0.294641321819745</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0443060016630062</v>
+        <v>0.042780285784912</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2217579490841</v>
+        <v>0.224267751703565</v>
       </c>
       <c r="D24" t="n">
-        <v>0.36752469455539</v>
+        <v>0.365014891935925</v>
       </c>
       <c r="E24" t="n">
-        <v>0.207801558560253</v>
+        <v>0.210791961681317</v>
       </c>
       <c r="F24" t="n">
-        <v>0.381481085079237</v>
+        <v>0.378490681958173</v>
       </c>
       <c r="G24" t="n">
-        <v>0.180509061535841</v>
+        <v>0.184439305637812</v>
       </c>
       <c r="H24" t="n">
-        <v>0.408773582103649</v>
+        <v>0.404843338001678</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -1500,25 +1500,25 @@
         <v>0.151899335232669</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0504008909936079</v>
+        <v>0.0502688678619867</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0689898695481836</v>
+        <v>0.0692070475997004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.234808800917154</v>
+        <v>0.234591622865637</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0531135888851971</v>
+        <v>0.0533723542231745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.25068508158014</v>
+        <v>0.250426316242163</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0220666400331347</v>
+        <v>0.0224067316201907</v>
       </c>
       <c r="H25" t="n">
-        <v>0.281732030432202</v>
+        <v>0.281391938845146</v>
       </c>
       <c r="I25" t="s">
         <v>28</v>
@@ -1541,25 +1541,25 @@
         <v>-0.0497558740676887</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00683779939142864</v>
+        <v>0.00640333214347831</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0610040540665888</v>
+        <v>-0.0602893554437105</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0385076940687886</v>
+        <v>-0.0392223926916669</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0631579608748889</v>
+        <v>-0.0623064050689062</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0363537872604886</v>
+        <v>-0.0372053430664712</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0673700453000089</v>
+        <v>-0.0662508576692888</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0321417028353685</v>
+        <v>-0.0332608904660886</v>
       </c>
       <c r="I26" t="s">
         <v>28</v>
@@ -1582,25 +1582,25 @@
         <v>0.171793231844809</v>
       </c>
       <c r="B27" t="n">
-        <v>0.357787259773049</v>
+        <v>0.352649866376652</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.416766810481856</v>
+        <v>-0.408315798344783</v>
       </c>
       <c r="D27" t="n">
-        <v>0.760353274171474</v>
+        <v>0.751902262034401</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.529469797310366</v>
+        <v>-0.519400506253428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.873056260999985</v>
+        <v>0.862986969943047</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.749866749330564</v>
+        <v>-0.736632823941446</v>
       </c>
       <c r="H27" t="n">
-        <v>1.09345321302018</v>
+        <v>1.08021928763106</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1623,25 +1623,25 @@
         <v>0.0157942952643019</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0734021609171769</v>
+        <v>0.0783453451227405</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.104952259444454</v>
+        <v>-0.113083797462606</v>
       </c>
       <c r="D28" t="n">
-        <v>0.136540849973058</v>
+        <v>0.14467238799121</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.128073940133365</v>
+        <v>-0.137762581176269</v>
       </c>
       <c r="F28" t="n">
-        <v>0.159662530661969</v>
+        <v>0.169351171704873</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.173289671258346</v>
+        <v>-0.186023313771878</v>
       </c>
       <c r="H28" t="n">
-        <v>0.20487826178695</v>
+        <v>0.217611904300481</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1664,28 +1664,28 @@
         <v>-0.4008989934313</v>
       </c>
       <c r="B29" t="n">
-        <v>0.212627663373416</v>
+        <v>0.211458667311776</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.750671499680569</v>
+        <v>-0.748748501159172</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.051126487182031</v>
+        <v>-0.0530494857034287</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.817649213643195</v>
+        <v>-0.815357981362381</v>
       </c>
       <c r="F29" t="n">
-        <v>0.015851226780595</v>
+        <v>0.0135599944997808</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.948627854281219</v>
+        <v>-0.945616520426435</v>
       </c>
       <c r="H29" t="n">
-        <v>0.146829867418619</v>
+        <v>0.143818533563835</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
         <v>30</v>
@@ -1705,28 +1705,28 @@
         <v>-0.429217108370012</v>
       </c>
       <c r="B30" t="n">
-        <v>0.22767593606113</v>
+        <v>0.218582338775497</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.803744023190572</v>
+        <v>-0.788785055655704</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0546901935494531</v>
+        <v>-0.0696491610843206</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.875461943049828</v>
+        <v>-0.857638492369986</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0170277263098029</v>
+        <v>-0.000795724370039219</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.01571031966348</v>
+        <v>-0.992285213055691</v>
       </c>
       <c r="H30" t="n">
-        <v>0.157276102923459</v>
+        <v>0.133850996315667</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
         <v>30</v>
@@ -1746,25 +1746,25 @@
         <v>-66.4798288053497</v>
       </c>
       <c r="B31" t="n">
-        <v>12.7291924111624</v>
+        <v>13.0317226736283</v>
       </c>
       <c r="C31" t="n">
-        <v>-87.4193503217118</v>
+        <v>-87.9170126034682</v>
       </c>
       <c r="D31" t="n">
-        <v>-45.5403072889875</v>
+        <v>-45.0426450072311</v>
       </c>
       <c r="E31" t="n">
-        <v>-91.429045931228</v>
+        <v>-92.0220052456611</v>
       </c>
       <c r="F31" t="n">
-        <v>-41.5306116794713</v>
+        <v>-40.9376523650382</v>
       </c>
       <c r="G31" t="n">
-        <v>-99.270228456504</v>
+        <v>-100.049546412616</v>
       </c>
       <c r="H31" t="n">
-        <v>-33.6894291541953</v>
+        <v>-32.9101111980832</v>
       </c>
       <c r="I31" t="s">
         <v>28</v>
@@ -1787,25 +1787,25 @@
         <v>-15.2864278298022</v>
       </c>
       <c r="B32" t="n">
-        <v>10.4576867355951</v>
+        <v>10.6365250903131</v>
       </c>
       <c r="C32" t="n">
-        <v>-32.4893225098562</v>
+        <v>-32.7835116033672</v>
       </c>
       <c r="D32" t="n">
-        <v>1.91646685025184</v>
+        <v>2.21065594376286</v>
       </c>
       <c r="E32" t="n">
-        <v>-35.7834938315686</v>
+        <v>-36.1340170068158</v>
       </c>
       <c r="F32" t="n">
-        <v>5.2106381719643</v>
+        <v>5.56116134721148</v>
       </c>
       <c r="G32" t="n">
-        <v>-42.2254288606952</v>
+        <v>-42.6861164624487</v>
       </c>
       <c r="H32" t="n">
-        <v>11.6525732010909</v>
+        <v>12.1132608028443</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1828,25 +1828,25 @@
         <v>0.619300181880286</v>
       </c>
       <c r="B33" t="n">
-        <v>3.65998821077568</v>
+        <v>3.67765480556342</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.40138042484571</v>
+        <v>-5.43044197327153</v>
       </c>
       <c r="D33" t="n">
-        <v>6.63998078860628</v>
+        <v>6.6690423370321</v>
       </c>
       <c r="E33" t="n">
-        <v>-6.55427671124005</v>
+        <v>-6.58890323702401</v>
       </c>
       <c r="F33" t="n">
-        <v>7.79287707500063</v>
+        <v>7.82750360078458</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.80882944907787</v>
+        <v>-8.85433859725107</v>
       </c>
       <c r="H33" t="n">
-        <v>10.0474298128384</v>
+        <v>10.0929389610116</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1869,25 +1869,25 @@
         <v>4.33200589021963</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5828635962901</v>
+        <v>1.62019754393671</v>
       </c>
       <c r="C34" t="n">
-        <v>1.72819527432241</v>
+        <v>1.66678093044374</v>
       </c>
       <c r="D34" t="n">
-        <v>6.93581650611685</v>
+        <v>6.99723084999552</v>
       </c>
       <c r="E34" t="n">
-        <v>1.22959324149103</v>
+        <v>1.15641870410368</v>
       </c>
       <c r="F34" t="n">
-        <v>7.43441853894823</v>
+        <v>7.50759307633558</v>
       </c>
       <c r="G34" t="n">
-        <v>0.254549266176324</v>
+        <v>0.15837701703867</v>
       </c>
       <c r="H34" t="n">
-        <v>8.40946251426294</v>
+        <v>8.50563476340059</v>
       </c>
       <c r="I34" t="s">
         <v>28</v>
@@ -1910,25 +1910,25 @@
         <v>-3.46749578268849</v>
       </c>
       <c r="B35" t="n">
-        <v>1.70232540547397</v>
+        <v>1.69251940941457</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.26782107469318</v>
+        <v>-6.25169021117546</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.667170490683808</v>
+        <v>-0.68330135420152</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.80405357741748</v>
+        <v>-6.78483382514105</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.130937987959507</v>
+        <v>-0.15015774023593</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.85268602718944</v>
+        <v>-7.82742578134043</v>
       </c>
       <c r="H35" t="n">
-        <v>0.91769446181246</v>
+        <v>0.892434215963448</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -1951,25 +1951,25 @@
         <v>-0.0428696868016608</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00768348946632092</v>
+        <v>0.00716775884409081</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0555090269737587</v>
+        <v>-0.0546606501001902</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0302303466295629</v>
+        <v>-0.0310787235031314</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0579293261556498</v>
+        <v>-0.0569184941360788</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0278100474476718</v>
+        <v>-0.0288208794672428</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0626623556669035</v>
+        <v>-0.0613338335840387</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0230770179364181</v>
+        <v>-0.0244055400192829</v>
       </c>
       <c r="I36" t="s">
         <v>28</v>
@@ -1992,25 +1992,25 @@
         <v>-0.0458399834258176</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00942636548627556</v>
+        <v>0.00845071231187318</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0613463546507409</v>
+        <v>-0.059741405178849</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0303336122008943</v>
+        <v>-0.0319385616727862</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0643156597789177</v>
+        <v>-0.0624033795570891</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0273643070727175</v>
+        <v>-0.0292765872945462</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0701223009184635</v>
+        <v>-0.0676090183412029</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0215576659331718</v>
+        <v>-0.0240709485104323</v>
       </c>
       <c r="I37" t="s">
         <v>28</v>
@@ -2033,25 +2033,25 @@
         <v>-3.4438013353583</v>
       </c>
       <c r="B38" t="n">
-        <v>1.27283818297208</v>
+        <v>1.19111835638137</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.53762014634738</v>
+        <v>-5.40319103160566</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.34998252436923</v>
+        <v>-1.48441163911095</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.93856417398359</v>
+        <v>-5.77839331386579</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.949038496733019</v>
+        <v>-1.10920935685082</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.72263249469439</v>
+        <v>-6.51212222139671</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.164970176022216</v>
+        <v>-0.375480449319891</v>
       </c>
       <c r="I38" t="s">
         <v>28</v>
@@ -2074,25 +2074,25 @@
         <v>0.60338720608678</v>
       </c>
       <c r="B39" t="n">
-        <v>1.16029202760431</v>
+        <v>1.14499827559907</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.30529317932231</v>
+        <v>-1.28013495727369</v>
       </c>
       <c r="D39" t="n">
-        <v>2.51206759149587</v>
+        <v>2.48690936944725</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.67078516801766</v>
+        <v>-1.6408094140874</v>
       </c>
       <c r="F39" t="n">
-        <v>2.87755958019122</v>
+        <v>2.84758382626096</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.38552505702192</v>
+        <v>-2.34612835185643</v>
       </c>
       <c r="H39" t="n">
-        <v>3.59229946919548</v>
+        <v>3.55290276402999</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -2115,25 +2115,25 @@
         <v>-73.1669933292313</v>
       </c>
       <c r="B40" t="n">
-        <v>15.4803385452441</v>
+        <v>16.8521829041642</v>
       </c>
       <c r="C40" t="n">
-        <v>-98.6321502361579</v>
+        <v>-100.888834206581</v>
       </c>
       <c r="D40" t="n">
-        <v>-47.7018364223048</v>
+        <v>-45.4451524518812</v>
       </c>
       <c r="E40" t="n">
-        <v>-103.50845687791</v>
+        <v>-106.197271821393</v>
       </c>
       <c r="F40" t="n">
-        <v>-42.8255297805529</v>
+        <v>-40.1367148370695</v>
       </c>
       <c r="G40" t="n">
-        <v>-113.04434542178</v>
+        <v>-116.578216490358</v>
       </c>
       <c r="H40" t="n">
-        <v>-33.2896412366825</v>
+        <v>-29.7557701681043</v>
       </c>
       <c r="I40" t="s">
         <v>28</v>
@@ -2156,25 +2156,25 @@
         <v>-13.8432341426709</v>
       </c>
       <c r="B41" t="n">
-        <v>14.9574043511392</v>
+        <v>14.105506710902</v>
       </c>
       <c r="C41" t="n">
-        <v>-38.4481643002949</v>
+        <v>-37.0467926821047</v>
       </c>
       <c r="D41" t="n">
-        <v>10.7616960149531</v>
+        <v>9.3603243967629</v>
       </c>
       <c r="E41" t="n">
-        <v>-43.1597466709037</v>
+        <v>-41.4900272960388</v>
       </c>
       <c r="F41" t="n">
-        <v>15.4732783855619</v>
+        <v>13.803559010697</v>
       </c>
       <c r="G41" t="n">
-        <v>-52.3735077512054</v>
+        <v>-50.1790194299545</v>
       </c>
       <c r="H41" t="n">
-        <v>24.6870394658637</v>
+        <v>22.4925511446127</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -2197,25 +2197,25 @@
         <v>3.09220947526775</v>
       </c>
       <c r="B42" t="n">
-        <v>10.2531495612796</v>
+        <v>9.23796980151739</v>
       </c>
       <c r="C42" t="n">
-        <v>-13.7742215530372</v>
+        <v>-12.1042508482284</v>
       </c>
       <c r="D42" t="n">
-        <v>19.9586405035727</v>
+        <v>18.2886697987639</v>
       </c>
       <c r="E42" t="n">
-        <v>-17.0039636648402</v>
+        <v>-15.0142113357063</v>
       </c>
       <c r="F42" t="n">
-        <v>23.1883826153758</v>
+        <v>21.1986302862418</v>
       </c>
       <c r="G42" t="n">
-        <v>-23.3199037945885</v>
+        <v>-20.7048007334411</v>
       </c>
       <c r="H42" t="n">
-        <v>29.504322745124</v>
+        <v>26.8892196839766</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -2238,25 +2238,25 @@
         <v>-0.506868075240465</v>
       </c>
       <c r="B43" t="n">
-        <v>1.08080202463488</v>
+        <v>1.18312861929407</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.28478740576484</v>
+        <v>-2.45311465397921</v>
       </c>
       <c r="D43" t="n">
-        <v>1.27105125528391</v>
+        <v>1.43937850349828</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.62524004352483</v>
+        <v>-2.82580016905684</v>
       </c>
       <c r="F43" t="n">
-        <v>1.6115038930439</v>
+        <v>1.81206401857591</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.29101409069991</v>
+        <v>-3.55460739854199</v>
       </c>
       <c r="H43" t="n">
-        <v>2.27727794021898</v>
+        <v>2.54087124806106</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -2279,25 +2279,25 @@
         <v>3.61366046148848</v>
       </c>
       <c r="B44" t="n">
-        <v>1.14504540232626</v>
+        <v>1.14190093646209</v>
       </c>
       <c r="C44" t="n">
-        <v>1.73006077466178</v>
+        <v>1.73523342100834</v>
       </c>
       <c r="D44" t="n">
-        <v>5.49726014831519</v>
+        <v>5.49208750196863</v>
       </c>
       <c r="E44" t="n">
-        <v>1.36937147292901</v>
+        <v>1.37553462602278</v>
       </c>
       <c r="F44" t="n">
-        <v>5.85794945004796</v>
+        <v>5.85178629695419</v>
       </c>
       <c r="G44" t="n">
-        <v>0.664023505096032</v>
+        <v>0.672123649162128</v>
       </c>
       <c r="H44" t="n">
-        <v>6.56329741788094</v>
+        <v>6.55519727381484</v>
       </c>
       <c r="I44" t="s">
         <v>28</v>
@@ -2320,25 +2320,25 @@
         <v>-45.1504776048457</v>
       </c>
       <c r="B45" t="n">
-        <v>21.0350084610037</v>
+        <v>19.4331592179922</v>
       </c>
       <c r="C45" t="n">
-        <v>-79.7530665231968</v>
+        <v>-77.1180245184429</v>
       </c>
       <c r="D45" t="n">
-        <v>-10.5478886864947</v>
+        <v>-13.1829306912486</v>
       </c>
       <c r="E45" t="n">
-        <v>-86.379094188413</v>
+        <v>-83.2394696721104</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.92186102127853</v>
+        <v>-7.06148553758105</v>
       </c>
       <c r="G45" t="n">
-        <v>-99.3366594003912</v>
+        <v>-95.2102957503936</v>
       </c>
       <c r="H45" t="n">
-        <v>9.03570419069974</v>
+        <v>4.90934054070215</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -2361,25 +2361,25 @@
         <v>6.390197174285</v>
       </c>
       <c r="B46" t="n">
-        <v>16.3461003692101</v>
+        <v>16.0519346416331</v>
       </c>
       <c r="C46" t="n">
-        <v>-20.4991379330655</v>
+        <v>-20.0152353112014</v>
       </c>
       <c r="D46" t="n">
-        <v>33.2795322816355</v>
+        <v>32.7956296597714</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.6481595493667</v>
+        <v>-25.0715947233159</v>
       </c>
       <c r="F46" t="n">
-        <v>38.4285538979367</v>
+        <v>37.8519890718859</v>
       </c>
       <c r="G46" t="n">
-        <v>-35.7173573768001</v>
+        <v>-34.9595864625619</v>
       </c>
       <c r="H46" t="n">
-        <v>48.4977517253701</v>
+        <v>47.7399808111318</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -2402,25 +2402,25 @@
         <v>1.79937102423223</v>
       </c>
       <c r="B47" t="n">
-        <v>4.94367883587071</v>
+        <v>4.54898648349331</v>
       </c>
       <c r="C47" t="n">
-        <v>-6.3329806607751</v>
+        <v>-5.68371174111428</v>
       </c>
       <c r="D47" t="n">
-        <v>9.93172270923955</v>
+        <v>9.28245378957873</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.89023949407437</v>
+        <v>-7.11664248341467</v>
       </c>
       <c r="F47" t="n">
-        <v>11.4889815425388</v>
+        <v>10.7153845318791</v>
       </c>
       <c r="G47" t="n">
-        <v>-10.9355456569707</v>
+        <v>-9.91881815724655</v>
       </c>
       <c r="H47" t="n">
-        <v>14.5342877054352</v>
+        <v>13.517560205711</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
@@ -2443,25 +2443,25 @@
         <v>0.000239295779107586</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00030199794884339</v>
+        <v>0.000314160748720222</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.00025749084673979</v>
+        <v>-0.00027749865253718</v>
       </c>
       <c r="D48" t="n">
-        <v>0.000736082404954963</v>
+        <v>0.000756090210752352</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.000352620200625458</v>
+        <v>-0.00037645928838405</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000831211758840631</v>
+        <v>0.000855050846599222</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.000538650937112987</v>
+        <v>-0.000569982309595707</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00101724249532816</v>
+        <v>0.00104857386781088</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -2484,25 +2484,25 @@
         <v>0.0059874111825759</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00178494901850337</v>
+        <v>0.00163243173716808</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00305117004713786</v>
+        <v>0.0033020609749344</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00892365231801393</v>
+        <v>0.00867276139021739</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0024889111063093</v>
+        <v>0.00278784497772645</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00948591125884249</v>
+        <v>0.00918697738742534</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00138938251091122</v>
+        <v>0.00178226702763091</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0105854398542406</v>
+        <v>0.0101925553375209</v>
       </c>
       <c r="I49" t="s">
         <v>28</v>
@@ -2525,25 +2525,25 @@
         <v>-1700.61513034433</v>
       </c>
       <c r="B50" t="n">
-        <v>2137.19867534032</v>
+        <v>2177.9162229985</v>
       </c>
       <c r="C50" t="n">
-        <v>-5216.30695127915</v>
+        <v>-5283.28731717686</v>
       </c>
       <c r="D50" t="n">
-        <v>1815.07669059049</v>
+        <v>1882.0570564882</v>
       </c>
       <c r="E50" t="n">
-        <v>-5889.52453401135</v>
+        <v>-5969.33092742139</v>
       </c>
       <c r="F50" t="n">
-        <v>2488.29427332269</v>
+        <v>2568.10066673273</v>
       </c>
       <c r="G50" t="n">
-        <v>-7206.03891802098</v>
+        <v>-7310.92732078846</v>
       </c>
       <c r="H50" t="n">
-        <v>3804.80865733233</v>
+        <v>3909.69706009981</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>

--- a/Output_code/Data/Table_3_and_Appendix_H_none_granted.xlsx
+++ b/Output_code/Data/Table_3_and_Appendix_H_none_granted.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">**</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group1</t>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
@@ -71,27 +71,21 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
-  </si>
-  <si>
     <t xml:space="preserve">NoPatentsYearGUOtotal</t>
   </si>
   <si>
+    <t xml:space="preserve">Specializations_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueCodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueSubclass</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
-    <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueSubclass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Herfindahl</t>
   </si>
   <si>
@@ -104,7 +98,13 @@
     <t xml:space="preserve">AIcodes</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group0</t>
+    <t xml:space="preserve">IQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">Rate_granted</t>
@@ -557,25 +557,25 @@
         <v>1.16304117147708</v>
       </c>
       <c r="B2" t="n">
-        <v>0.498228515179819</v>
+        <v>0.502254822363603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.343455264006277</v>
+        <v>0.336831988688954</v>
       </c>
       <c r="D2" t="n">
-        <v>1.98262707894788</v>
+        <v>1.98925035426521</v>
       </c>
       <c r="E2" t="n">
-        <v>0.186513281724634</v>
+        <v>0.178621719644419</v>
       </c>
       <c r="F2" t="n">
-        <v>2.13956906122953</v>
+        <v>2.14746062330974</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.120395483626135</v>
+        <v>-0.13076725093156</v>
       </c>
       <c r="H2" t="n">
-        <v>2.44647782658029</v>
+        <v>2.45684959388572</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -595,37 +595,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.554894668234565</v>
+        <v>-1.29728300156919</v>
       </c>
       <c r="B3" t="n">
-        <v>0.351646952132582</v>
+        <v>2.69273154961779</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.023564568023532</v>
+        <v>-5.72682640069046</v>
       </c>
       <c r="D3" t="n">
-        <v>1.13335390449266</v>
+        <v>3.13226039755207</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.134333357945295</v>
+        <v>-6.57503683882007</v>
       </c>
       <c r="F3" t="n">
-        <v>1.24412269441443</v>
+        <v>3.98047083568168</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.350947880458966</v>
+        <v>-8.23375947338463</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4607372169281</v>
+        <v>5.63919347024624</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -636,37 +636,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0645203473166649</v>
+        <v>0.0701892391509261</v>
       </c>
       <c r="B4" t="n">
-        <v>0.315753021843558</v>
+        <v>0.172336514667553</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.454893373615988</v>
+        <v>-0.213304327477199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.583934068249318</v>
+        <v>0.353682805779051</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.554355575496709</v>
+        <v>-0.267590329597478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.683396270130038</v>
+        <v>0.40796880789933</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.74885943695234</v>
+        <v>-0.373749622632691</v>
       </c>
       <c r="H4" t="n">
-        <v>0.87790013158567</v>
+        <v>0.514128100934543</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -677,28 +677,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.29728300156919</v>
+        <v>0.0932032647355112</v>
       </c>
       <c r="B5" t="n">
-        <v>2.58317635553724</v>
+        <v>0.0573600563619905</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.54660810642795</v>
+        <v>-0.00115402797996322</v>
       </c>
       <c r="D5" t="n">
-        <v>2.95204210328956</v>
+        <v>0.187560557450986</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.36030865842218</v>
+        <v>-0.0192224457339902</v>
       </c>
       <c r="F5" t="n">
-        <v>3.7657426552838</v>
+        <v>0.205628975205013</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.95154529343312</v>
+        <v>-0.0545562404529764</v>
       </c>
       <c r="H5" t="n">
-        <v>5.35697929029473</v>
+        <v>0.240962769923999</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -718,37 +718,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.35316997495421</v>
+        <v>0.083770207575228</v>
       </c>
       <c r="B6" t="n">
-        <v>2.84918337745342</v>
+        <v>0.444976360369384</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.33373668095667</v>
+        <v>-0.648215905232408</v>
       </c>
       <c r="D6" t="n">
-        <v>6.04007663086508</v>
+        <v>0.815756320382864</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.2312294448545</v>
+        <v>-0.788383458748764</v>
       </c>
       <c r="F6" t="n">
-        <v>6.93756939476291</v>
+        <v>0.95592387389922</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.9863264053658</v>
+        <v>-1.0624888967363</v>
       </c>
       <c r="H6" t="n">
-        <v>8.69266635527422</v>
+        <v>1.23002931188676</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -759,37 +759,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.6233855650522</v>
+        <v>-0.0319204503931948</v>
       </c>
       <c r="B7" t="n">
-        <v>7.53011256165978</v>
+        <v>0.0173364071646401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2363504011219</v>
+        <v>-0.0604388401790277</v>
       </c>
       <c r="D7" t="n">
-        <v>25.0104207289826</v>
+        <v>-0.00340206060736185</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.13563505580093</v>
+        <v>-0.0658998084358893</v>
       </c>
       <c r="F7" t="n">
-        <v>27.3824061859054</v>
+        <v>0.00205890764949977</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.77418439378335</v>
+        <v>-0.0765790352493076</v>
       </c>
       <c r="H7" t="n">
-        <v>32.0209555238878</v>
+        <v>0.0127381344629181</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -800,28 +800,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0701892391509261</v>
+        <v>0.086088491645341</v>
       </c>
       <c r="B8" t="n">
-        <v>0.185456095849883</v>
+        <v>0.0633084827275891</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.234886038522131</v>
+        <v>-0.0180539624415431</v>
       </c>
       <c r="D8" t="n">
-        <v>0.375264516823983</v>
+        <v>0.190230945732225</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.293304708714844</v>
+        <v>-0.0379961345007337</v>
       </c>
       <c r="F8" t="n">
-        <v>0.433683187016696</v>
+        <v>0.210173117791416</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.407545663758371</v>
+        <v>-0.0769941598609286</v>
       </c>
       <c r="H8" t="n">
-        <v>0.547924142060224</v>
+        <v>0.249171143151611</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -841,37 +841,37 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.625817726440133</v>
+        <v>0.398251236571317</v>
       </c>
       <c r="B9" t="n">
-        <v>0.315819854082427</v>
+        <v>0.0429060940732519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106294066474541</v>
+        <v>0.327670711820818</v>
       </c>
       <c r="D9" t="n">
-        <v>1.14534138640573</v>
+        <v>0.468831761321816</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00681081243857629</v>
+        <v>0.314155292187743</v>
       </c>
       <c r="F9" t="n">
-        <v>1.24482464044169</v>
+        <v>0.482347180954891</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.187734217676199</v>
+        <v>0.28772513823862</v>
       </c>
       <c r="H9" t="n">
-        <v>1.43936967055647</v>
+        <v>0.508777334904014</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -882,37 +882,37 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.4570987654321</v>
+        <v>0.554894668234565</v>
       </c>
       <c r="B10" t="n">
-        <v>0.632627953220439</v>
+        <v>0.364664846426061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.416425782384477</v>
+        <v>-0.044979004136305</v>
       </c>
       <c r="D10" t="n">
-        <v>2.49777174847972</v>
+        <v>1.15476834060543</v>
       </c>
       <c r="E10" t="n">
-        <v>0.217147977120039</v>
+        <v>-0.159848430760514</v>
       </c>
       <c r="F10" t="n">
-        <v>2.69704955374416</v>
+        <v>1.26963776722964</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.172550842063751</v>
+        <v>-0.384481976158968</v>
       </c>
       <c r="H10" t="n">
-        <v>3.08674837292795</v>
+        <v>1.4942713126281</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -923,37 +923,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0932032647355112</v>
+        <v>1.35316997495421</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0548829277913071</v>
+        <v>2.81845539880599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00292084851881103</v>
+        <v>-3.28318915608165</v>
       </c>
       <c r="D11" t="n">
-        <v>0.183485680952211</v>
+        <v>5.98952910599006</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0143672737354507</v>
+        <v>-4.17100260670554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.200773803206473</v>
+        <v>6.87734255661395</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0481751572548959</v>
+        <v>-5.90717113237003</v>
       </c>
       <c r="H11" t="n">
-        <v>0.234581686725918</v>
+        <v>8.61351108227844</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -964,37 +964,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0838683127572016</v>
+        <v>0.625817726440133</v>
       </c>
       <c r="B12" t="n">
-        <v>0.075367684183932</v>
+        <v>0.317697856495526</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0401115277253666</v>
+        <v>0.103204752504993</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20784815323977</v>
+        <v>1.14843070037527</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0638523482433051</v>
+        <v>0.00312992770890241</v>
       </c>
       <c r="F12" t="n">
-        <v>0.231588973757708</v>
+        <v>1.24850552517136</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.110278841700607</v>
+        <v>-0.192571951892342</v>
       </c>
       <c r="H12" t="n">
-        <v>0.278015467215011</v>
+        <v>1.44420740477261</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1005,37 +1005,37 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.235400650502661</v>
+        <v>0.0838683127572016</v>
       </c>
       <c r="B13" t="n">
-        <v>0.098577374365055</v>
+        <v>0.0712755574387838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0732408696721457</v>
+        <v>-0.0333799792295977</v>
       </c>
       <c r="D13" t="n">
-        <v>0.397560431333177</v>
+        <v>0.201116604744001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0421889967471534</v>
+        <v>-0.0558317798228146</v>
       </c>
       <c r="F13" t="n">
-        <v>0.428612304258169</v>
+        <v>0.223568405337218</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0185346658617205</v>
+        <v>-0.0997375232051054</v>
       </c>
       <c r="H13" t="n">
-        <v>0.489335966867043</v>
+        <v>0.267474148719509</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1046,37 +1046,37 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.083770207575228</v>
+        <v>1.6585768175583</v>
       </c>
       <c r="B14" t="n">
-        <v>0.464687573119094</v>
+        <v>0.779574626818786</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.680640850205682</v>
+        <v>0.376176556441397</v>
       </c>
       <c r="D14" t="n">
-        <v>0.848181265356138</v>
+        <v>2.9409770786752</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.827017435738196</v>
+        <v>0.130610548993479</v>
       </c>
       <c r="F14" t="n">
-        <v>0.994557850888652</v>
+        <v>3.18654308612312</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.11326498077956</v>
+        <v>-0.349607421126892</v>
       </c>
       <c r="H14" t="n">
-        <v>1.28080539593001</v>
+        <v>3.66676105624349</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1087,37 +1087,37 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.6585768175583</v>
+        <v>-0.015231976988692</v>
       </c>
       <c r="B15" t="n">
-        <v>0.749519415466409</v>
+        <v>0.0102413989840891</v>
       </c>
       <c r="C15" t="n">
-        <v>0.425617379116056</v>
+        <v>-0.0320790783175185</v>
       </c>
       <c r="D15" t="n">
-        <v>2.89153625600054</v>
+        <v>0.00161512434013452</v>
       </c>
       <c r="E15" t="n">
-        <v>0.189518763244137</v>
+        <v>-0.0353051189975066</v>
       </c>
       <c r="F15" t="n">
-        <v>3.12763487187246</v>
+        <v>0.00484116502012257</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.272185196683171</v>
+        <v>-0.0416138207717054</v>
       </c>
       <c r="H15" t="n">
-        <v>3.58933883179977</v>
+        <v>0.0111498667943214</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1128,34 +1128,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.14614133648729</v>
+        <v>0.0750872908063464</v>
       </c>
       <c r="B16" t="n">
-        <v>1.22165617112528</v>
+        <v>0.0354994191976249</v>
       </c>
       <c r="C16" t="n">
-        <v>1.13651693498619</v>
+        <v>0.0166907462262535</v>
       </c>
       <c r="D16" t="n">
-        <v>5.15576573798838</v>
+        <v>0.133483835386439</v>
       </c>
       <c r="E16" t="n">
-        <v>0.751695241081729</v>
+        <v>0.00550842917900164</v>
       </c>
       <c r="F16" t="n">
-        <v>5.54058743189284</v>
+        <v>0.144666152433691</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.000844960331446654</v>
+        <v>-0.0163592130467353</v>
       </c>
       <c r="H16" t="n">
-        <v>6.29312763330602</v>
+        <v>0.166533794659428</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
@@ -1169,37 +1169,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0319204503931948</v>
+        <v>0.294641321819745</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0180423959330387</v>
+        <v>0.0446841611829012</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0616001917030434</v>
+        <v>0.221135876673873</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00224070908334618</v>
+        <v>0.368146766965618</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0672835464219506</v>
+        <v>0.207060365901259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00344264563556099</v>
+        <v>0.382222277738231</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0783976623167024</v>
+        <v>0.179534922612592</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0145567615303128</v>
+        <v>0.409747721026898</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1210,37 +1210,37 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.015231976988692</v>
+        <v>0.0645203473166649</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0098887288230895</v>
+        <v>0.312157889805719</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0314989359026742</v>
+        <v>-0.448979381413743</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00103498192529023</v>
+        <v>0.578020076047073</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0346138854819474</v>
+        <v>-0.547309116702545</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00414993150456342</v>
+        <v>0.676349811335875</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0407053424369705</v>
+        <v>-0.739598376822868</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0102413884595866</v>
+        <v>0.868639071456198</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1251,37 +1251,37 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0106034140705326</v>
+        <v>12.6233855650522</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00881181267494987</v>
+        <v>7.82591286756466</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0250988459208251</v>
+        <v>-0.25024110209163</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00389201777975994</v>
+        <v>25.4970122321961</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0278745669134343</v>
+        <v>-2.7154036553745</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00666773877236915</v>
+        <v>27.962174785479</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0333026435212035</v>
+        <v>-7.53616598179433</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0120958153801383</v>
+        <v>32.7829371118988</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1292,37 +1292,37 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.086088491645341</v>
+        <v>1.4570987654321</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0648118508293733</v>
+        <v>0.673623780564187</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.020527002968978</v>
+        <v>0.348987646404011</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19270398625966</v>
+        <v>2.56520988446019</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0409427359802306</v>
+        <v>0.136796155526292</v>
       </c>
       <c r="F20" t="n">
-        <v>0.213119719270913</v>
+        <v>2.7774013753379</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0808668360911245</v>
+        <v>-0.278156093301247</v>
       </c>
       <c r="H20" t="n">
-        <v>0.253043819381806</v>
+        <v>3.19235362416544</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1333,37 +1333,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0750872908063464</v>
+        <v>0.235400650502661</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0356620162892947</v>
+        <v>0.0999268731341937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0164232740104567</v>
+        <v>0.0710209441969125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.133751307602236</v>
+        <v>0.39978035680841</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00518973887932893</v>
+        <v>0.0395439791596415</v>
       </c>
       <c r="F21" t="n">
-        <v>0.144984842733364</v>
+        <v>0.431257321845681</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0167780631548766</v>
+        <v>-0.0220109746910218</v>
       </c>
       <c r="H21" t="n">
-        <v>0.166952644767569</v>
+        <v>0.492812275696344</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1374,37 +1374,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0877334803528469</v>
+        <v>3.14614133648729</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0477776226275642</v>
+        <v>1.32525512343812</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00913929113050369</v>
+        <v>0.96609665843158</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16632766957519</v>
+        <v>5.32618601454299</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00591065999717905</v>
+        <v>0.548641294548573</v>
       </c>
       <c r="F22" t="n">
-        <v>0.181377620702873</v>
+        <v>5.743641378426</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0353416755357586</v>
+        <v>-0.267715861489309</v>
       </c>
       <c r="H22" t="n">
-        <v>0.210808636241452</v>
+        <v>6.55999853446388</v>
       </c>
       <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
         <v>22</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>27</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1415,37 +1415,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.398251236571317</v>
+        <v>-0.0106034140705326</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0425113852319713</v>
+        <v>0.00895973963036691</v>
       </c>
       <c r="C23" t="n">
-        <v>0.328320007864724</v>
+        <v>-0.0253421857624862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.46818246527791</v>
+        <v>0.00413535762142097</v>
       </c>
       <c r="E23" t="n">
-        <v>0.314928921516653</v>
+        <v>-0.0281645037460517</v>
       </c>
       <c r="F23" t="n">
-        <v>0.481573551625981</v>
+        <v>0.00695767560498654</v>
       </c>
       <c r="G23" t="n">
-        <v>0.288741908213759</v>
+        <v>-0.0336837033583577</v>
       </c>
       <c r="H23" t="n">
-        <v>0.507760564928875</v>
+        <v>0.0124768752172926</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1456,37 +1456,37 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.294641321819745</v>
+        <v>0.0877334803528469</v>
       </c>
       <c r="B24" t="n">
-        <v>0.042780285784912</v>
+        <v>0.0477772488280474</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224267751703565</v>
+        <v>0.00913990603070883</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365014891935925</v>
+        <v>0.166327054674985</v>
       </c>
       <c r="E24" t="n">
-        <v>0.210791961681317</v>
+        <v>-0.0059099273501261</v>
       </c>
       <c r="F24" t="n">
-        <v>0.378490681958173</v>
+        <v>0.18137688805582</v>
       </c>
       <c r="G24" t="n">
-        <v>0.184439305637812</v>
+        <v>-0.0353407126282033</v>
       </c>
       <c r="H24" t="n">
-        <v>0.404843338001678</v>
+        <v>0.210807673333897</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1500,34 +1500,34 @@
         <v>0.151899335232669</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0502688678619867</v>
+        <v>0.0470158138875049</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0692070475997004</v>
+        <v>0.0745583213877229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.234591622865637</v>
+        <v>0.229240349077614</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0533723542231745</v>
+        <v>0.0597483400131589</v>
       </c>
       <c r="F25" t="n">
-        <v>0.250426316242163</v>
+        <v>0.244050330452178</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0224067316201907</v>
+        <v>0.0307865986584559</v>
       </c>
       <c r="H25" t="n">
-        <v>0.281391938845146</v>
+        <v>0.273012071806881</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -1541,28 +1541,28 @@
         <v>-0.0497558740676887</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00640333214347831</v>
+        <v>0.00684142728340591</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0602893554437105</v>
+        <v>-0.0610100219488914</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0392223926916669</v>
+        <v>-0.038501726186486</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0623064050689062</v>
+        <v>-0.0631650715431643</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0372053430664712</v>
+        <v>-0.0363466765922131</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0662508576692888</v>
+        <v>-0.0673793907497423</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0332608904660886</v>
+        <v>-0.0321323573856351</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
         <v>30</v>
@@ -1582,25 +1582,25 @@
         <v>0.171793231844809</v>
       </c>
       <c r="B27" t="n">
-        <v>0.352649866376652</v>
+        <v>0.354853203910605</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.408315798344783</v>
+        <v>-0.411940288588136</v>
       </c>
       <c r="D27" t="n">
-        <v>0.751902262034401</v>
+        <v>0.755526752277754</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.519400506253428</v>
+        <v>-0.523719047819976</v>
       </c>
       <c r="F27" t="n">
-        <v>0.862986969943047</v>
+        <v>0.867305511509595</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.736632823941446</v>
+        <v>-0.742308621428909</v>
       </c>
       <c r="H27" t="n">
-        <v>1.08021928763106</v>
+        <v>1.08589508511853</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1623,25 +1623,25 @@
         <v>0.0157942952643019</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0783453451227405</v>
+        <v>0.0769184597093573</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.113083797462606</v>
+        <v>-0.110736570957591</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14467238799121</v>
+        <v>0.142325161486195</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.137762581176269</v>
+        <v>-0.134965885766038</v>
       </c>
       <c r="F28" t="n">
-        <v>0.169351171704873</v>
+        <v>0.166554476294642</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.186023313771878</v>
+        <v>-0.182347656947002</v>
       </c>
       <c r="H28" t="n">
-        <v>0.217611904300481</v>
+        <v>0.213936247475606</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1664,28 +1664,28 @@
         <v>-0.4008989934313</v>
       </c>
       <c r="B29" t="n">
-        <v>0.211458667311776</v>
+        <v>0.202358992512149</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.748748501159172</v>
+        <v>-0.733779536113785</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0530494857034287</v>
+        <v>-0.0680184507488149</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.815357981362381</v>
+        <v>-0.797522618755112</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0135599944997808</v>
+        <v>-0.00427536810748796</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.945616520426435</v>
+        <v>-0.922175758142596</v>
       </c>
       <c r="H29" t="n">
-        <v>0.143818533563835</v>
+        <v>0.120377771279996</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
         <v>30</v>
@@ -1705,28 +1705,28 @@
         <v>-0.429217108370012</v>
       </c>
       <c r="B30" t="n">
-        <v>0.218582338775497</v>
+        <v>0.228183041181182</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.788785055655704</v>
+        <v>-0.804578211113057</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0696491610843206</v>
+        <v>-0.0538560056269678</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.857638492369986</v>
+        <v>-0.876455869085129</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.000795724370039219</v>
+        <v>0.0180216523451046</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.992285213055691</v>
+        <v>-1.01701662245274</v>
       </c>
       <c r="H30" t="n">
-        <v>0.133850996315667</v>
+        <v>0.158582405712713</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
         <v>30</v>
@@ -1746,28 +1746,28 @@
         <v>-66.4798288053497</v>
       </c>
       <c r="B31" t="n">
-        <v>13.0317226736283</v>
+        <v>12.0385343629753</v>
       </c>
       <c r="C31" t="n">
-        <v>-87.9170126034682</v>
+        <v>-86.2832178324441</v>
       </c>
       <c r="D31" t="n">
-        <v>-45.0426450072311</v>
+        <v>-46.6764397782552</v>
       </c>
       <c r="E31" t="n">
-        <v>-92.0220052456611</v>
+        <v>-90.0753561567813</v>
       </c>
       <c r="F31" t="n">
-        <v>-40.9376523650382</v>
+        <v>-42.884301453918</v>
       </c>
       <c r="G31" t="n">
-        <v>-100.049546412616</v>
+        <v>-97.4910933243741</v>
       </c>
       <c r="H31" t="n">
-        <v>-32.9101111980832</v>
+        <v>-35.4685642863252</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
         <v>30</v>
@@ -1787,25 +1787,25 @@
         <v>-15.2864278298022</v>
       </c>
       <c r="B32" t="n">
-        <v>10.6365250903131</v>
+        <v>10.765473211883</v>
       </c>
       <c r="C32" t="n">
-        <v>-32.7835116033672</v>
+        <v>-32.9956312633496</v>
       </c>
       <c r="D32" t="n">
-        <v>2.21065594376286</v>
+        <v>2.4227756037453</v>
       </c>
       <c r="E32" t="n">
-        <v>-36.1340170068158</v>
+        <v>-36.3867553250927</v>
       </c>
       <c r="F32" t="n">
-        <v>5.56116134721148</v>
+        <v>5.81389966548842</v>
       </c>
       <c r="G32" t="n">
-        <v>-42.6861164624487</v>
+        <v>-43.0182868236126</v>
       </c>
       <c r="H32" t="n">
-        <v>12.1132608028443</v>
+        <v>12.4454311640083</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -1828,25 +1828,25 @@
         <v>0.619300181880286</v>
       </c>
       <c r="B33" t="n">
-        <v>3.67765480556342</v>
+        <v>3.5242155590562</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.43044197327153</v>
+        <v>-5.17803441276716</v>
       </c>
       <c r="D33" t="n">
-        <v>6.6690423370321</v>
+        <v>6.41663477652774</v>
       </c>
       <c r="E33" t="n">
-        <v>-6.58890323702401</v>
+        <v>-6.28816231386987</v>
       </c>
       <c r="F33" t="n">
-        <v>7.82750360078458</v>
+        <v>7.52676267763044</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.85433859725107</v>
+        <v>-8.45907909824849</v>
       </c>
       <c r="H33" t="n">
-        <v>10.0929389610116</v>
+        <v>9.69767946200906</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -1869,28 +1869,28 @@
         <v>4.33200589021963</v>
       </c>
       <c r="B34" t="n">
-        <v>1.62019754393671</v>
+        <v>1.59413996905238</v>
       </c>
       <c r="C34" t="n">
-        <v>1.66678093044374</v>
+        <v>1.70964564112846</v>
       </c>
       <c r="D34" t="n">
-        <v>6.99723084999552</v>
+        <v>6.9543661393108</v>
       </c>
       <c r="E34" t="n">
-        <v>1.15641870410368</v>
+        <v>1.20749155087696</v>
       </c>
       <c r="F34" t="n">
-        <v>7.50759307633558</v>
+        <v>7.4565202295623</v>
       </c>
       <c r="G34" t="n">
-        <v>0.15837701703867</v>
+        <v>0.225501329940694</v>
       </c>
       <c r="H34" t="n">
-        <v>8.50563476340059</v>
+        <v>8.43851045049857</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
         <v>30</v>
@@ -1910,25 +1910,25 @@
         <v>-3.46749578268849</v>
       </c>
       <c r="B35" t="n">
-        <v>1.69251940941457</v>
+        <v>1.73018244764455</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.25169021117546</v>
+        <v>-6.31364590906378</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.68330135420152</v>
+        <v>-0.621345656313202</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.78483382514105</v>
+        <v>-6.85865338007182</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.15015774023593</v>
+        <v>-0.0763381853051683</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.82742578134043</v>
+        <v>-7.92444576782086</v>
       </c>
       <c r="H35" t="n">
-        <v>0.892434215963448</v>
+        <v>0.989454202443877</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -1951,28 +1951,28 @@
         <v>-0.0428696868016608</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00716775884409081</v>
+        <v>0.00849121387590538</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0546606501001902</v>
+        <v>-0.0568377336275252</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0310787235031314</v>
+        <v>-0.0289016399757964</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0569184941360788</v>
+        <v>-0.0595124659984354</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0288208794672428</v>
+        <v>-0.0262269076048863</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0613338335840387</v>
+        <v>-0.0647430537459931</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0244055400192829</v>
+        <v>-0.0209963198573285</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
         <v>30</v>
@@ -1992,28 +1992,28 @@
         <v>-0.0458399834258176</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00845071231187318</v>
+        <v>0.0090129975535497</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.059741405178849</v>
+        <v>-0.0606663644014069</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0319385616727862</v>
+        <v>-0.0310136024502284</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0624033795570891</v>
+        <v>-0.063505458630775</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0292765872945462</v>
+        <v>-0.0281745082208602</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0676090183412029</v>
+        <v>-0.0690574651237617</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0240709485104323</v>
+        <v>-0.0226225017278736</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J37" t="s">
         <v>30</v>
@@ -2033,28 +2033,28 @@
         <v>-3.4438013353583</v>
       </c>
       <c r="B38" t="n">
-        <v>1.19111835638137</v>
+        <v>1.25468239985814</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.40319103160566</v>
+        <v>-5.50775388312494</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.48441163911095</v>
+        <v>-1.37984878759166</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.77839331386579</v>
+        <v>-5.90297883908025</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.10920935685082</v>
+        <v>-0.984623831636351</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.51212222139671</v>
+        <v>-6.67586319739287</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.375480449319891</v>
+        <v>-0.211739473323737</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J38" t="s">
         <v>30</v>
@@ -2074,25 +2074,25 @@
         <v>0.60338720608678</v>
       </c>
       <c r="B39" t="n">
-        <v>1.14499827559907</v>
+        <v>1.08742943639612</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.28013495727369</v>
+        <v>-1.18543421678483</v>
       </c>
       <c r="D39" t="n">
-        <v>2.48690936944725</v>
+        <v>2.39220862895839</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.6408094140874</v>
+        <v>-1.52797448924961</v>
       </c>
       <c r="F39" t="n">
-        <v>2.84758382626096</v>
+        <v>2.73474890142317</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.34612835185643</v>
+        <v>-2.19783102206962</v>
       </c>
       <c r="H39" t="n">
-        <v>3.55290276402999</v>
+        <v>3.40460543424318</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -2115,28 +2115,28 @@
         <v>-73.1669933292313</v>
       </c>
       <c r="B40" t="n">
-        <v>16.8521829041642</v>
+        <v>15.7253865057558</v>
       </c>
       <c r="C40" t="n">
-        <v>-100.888834206581</v>
+        <v>-99.0352541311996</v>
       </c>
       <c r="D40" t="n">
-        <v>-45.4451524518812</v>
+        <v>-47.298732527263</v>
       </c>
       <c r="E40" t="n">
-        <v>-106.197271821393</v>
+        <v>-103.988750880513</v>
       </c>
       <c r="F40" t="n">
-        <v>-40.1367148370695</v>
+        <v>-42.34523577795</v>
       </c>
       <c r="G40" t="n">
-        <v>-116.578216490358</v>
+        <v>-113.675588968058</v>
       </c>
       <c r="H40" t="n">
-        <v>-29.7557701681043</v>
+        <v>-32.6583976904044</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J40" t="s">
         <v>30</v>
@@ -2156,25 +2156,25 @@
         <v>-13.8432341426709</v>
       </c>
       <c r="B41" t="n">
-        <v>14.105506710902</v>
+        <v>15.0596467493279</v>
       </c>
       <c r="C41" t="n">
-        <v>-37.0467926821047</v>
+        <v>-38.6163530453153</v>
       </c>
       <c r="D41" t="n">
-        <v>9.3603243967629</v>
+        <v>10.9298847599735</v>
       </c>
       <c r="E41" t="n">
-        <v>-41.4900272960388</v>
+        <v>-43.3601417713536</v>
       </c>
       <c r="F41" t="n">
-        <v>13.803559010697</v>
+        <v>15.6736734860118</v>
       </c>
       <c r="G41" t="n">
-        <v>-50.1790194299545</v>
+        <v>-52.6368841689396</v>
       </c>
       <c r="H41" t="n">
-        <v>22.4925511446127</v>
+        <v>24.9504158835978</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -2197,25 +2197,25 @@
         <v>3.09220947526775</v>
       </c>
       <c r="B42" t="n">
-        <v>9.23796980151739</v>
+        <v>9.24889401239827</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.1042508482284</v>
+        <v>-12.1222211751274</v>
       </c>
       <c r="D42" t="n">
-        <v>18.2886697987639</v>
+        <v>18.3066401256629</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.0142113357063</v>
+        <v>-15.0356227890329</v>
       </c>
       <c r="F42" t="n">
-        <v>21.1986302862418</v>
+        <v>21.2200417395684</v>
       </c>
       <c r="G42" t="n">
-        <v>-20.7048007334411</v>
+        <v>-20.7329415006702</v>
       </c>
       <c r="H42" t="n">
-        <v>26.8892196839766</v>
+        <v>26.9173604512057</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -2238,25 +2238,25 @@
         <v>-0.506868075240465</v>
       </c>
       <c r="B43" t="n">
-        <v>1.18312861929407</v>
+        <v>1.20028087771611</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.45311465397921</v>
+        <v>-2.48133011908346</v>
       </c>
       <c r="D43" t="n">
-        <v>1.43937850349828</v>
+        <v>1.46759396860253</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.82580016905684</v>
+        <v>-2.85941859556404</v>
       </c>
       <c r="F43" t="n">
-        <v>1.81206401857591</v>
+        <v>1.84568244508311</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.55460739854199</v>
+        <v>-3.59879161623716</v>
       </c>
       <c r="H43" t="n">
-        <v>2.54087124806106</v>
+        <v>2.58505546575623</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -2279,28 +2279,28 @@
         <v>3.61366046148848</v>
       </c>
       <c r="B44" t="n">
-        <v>1.14190093646209</v>
+        <v>1.14695182660123</v>
       </c>
       <c r="C44" t="n">
-        <v>1.73523342100834</v>
+        <v>1.72692470672947</v>
       </c>
       <c r="D44" t="n">
-        <v>5.49208750196863</v>
+        <v>5.5003962162475</v>
       </c>
       <c r="E44" t="n">
-        <v>1.37553462602278</v>
+        <v>1.36563488135008</v>
       </c>
       <c r="F44" t="n">
-        <v>5.85178629695419</v>
+        <v>5.86168604162689</v>
       </c>
       <c r="G44" t="n">
-        <v>0.672123649162128</v>
+        <v>0.659112556163726</v>
       </c>
       <c r="H44" t="n">
-        <v>6.55519727381484</v>
+        <v>6.56820836681324</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J44" t="s">
         <v>30</v>
@@ -2320,25 +2320,25 @@
         <v>-45.1504776048457</v>
       </c>
       <c r="B45" t="n">
-        <v>19.4331592179922</v>
+        <v>20.2668778544774</v>
       </c>
       <c r="C45" t="n">
-        <v>-77.1180245184429</v>
+        <v>-78.489491675461</v>
       </c>
       <c r="D45" t="n">
-        <v>-13.1829306912486</v>
+        <v>-11.8114635342305</v>
       </c>
       <c r="E45" t="n">
-        <v>-83.2394696721104</v>
+        <v>-84.8735581996214</v>
       </c>
       <c r="F45" t="n">
-        <v>-7.06148553758105</v>
+        <v>-5.42739701007009</v>
       </c>
       <c r="G45" t="n">
-        <v>-95.2102957503936</v>
+        <v>-97.3579549579795</v>
       </c>
       <c r="H45" t="n">
-        <v>4.90934054070215</v>
+        <v>7.05699974828798</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -2361,25 +2361,25 @@
         <v>6.390197174285</v>
       </c>
       <c r="B46" t="n">
-        <v>16.0519346416331</v>
+        <v>15.4374057511571</v>
       </c>
       <c r="C46" t="n">
-        <v>-20.0152353112014</v>
+        <v>-19.0043352863685</v>
       </c>
       <c r="D46" t="n">
-        <v>32.7956296597714</v>
+        <v>31.7847296349384</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.0715947233159</v>
+        <v>-23.8671180979829</v>
       </c>
       <c r="F46" t="n">
-        <v>37.8519890718859</v>
+        <v>36.6475124465529</v>
       </c>
       <c r="G46" t="n">
-        <v>-34.9595864625619</v>
+        <v>-33.3765600406957</v>
       </c>
       <c r="H46" t="n">
-        <v>47.7399808111318</v>
+        <v>46.1569543892657</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -2402,25 +2402,25 @@
         <v>1.79937102423223</v>
       </c>
       <c r="B47" t="n">
-        <v>4.54898648349331</v>
+        <v>4.58741476544381</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.68371174111428</v>
+        <v>-5.74692626492285</v>
       </c>
       <c r="D47" t="n">
-        <v>9.28245378957873</v>
+        <v>9.3456683133873</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.11664248341467</v>
+        <v>-7.19196191603765</v>
       </c>
       <c r="F47" t="n">
-        <v>10.7153845318791</v>
+        <v>10.7907039645021</v>
       </c>
       <c r="G47" t="n">
-        <v>-9.91881815724655</v>
+        <v>-10.017809411551</v>
       </c>
       <c r="H47" t="n">
-        <v>13.517560205711</v>
+        <v>13.6165514600155</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
@@ -2443,25 +2443,25 @@
         <v>0.000239295779107586</v>
       </c>
       <c r="B48" t="n">
-        <v>0.000314160748720222</v>
+        <v>0.000308328510128595</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.00027749865253718</v>
+        <v>-0.000267904620053953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.000756090210752352</v>
+        <v>0.000746496178269125</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.00037645928838405</v>
+        <v>-0.00036502810074446</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000855050846599222</v>
+        <v>0.000843619658959633</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.000569982309595707</v>
+        <v>-0.000554958462983675</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00104857386781088</v>
+        <v>0.00103355002119885</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -2484,28 +2484,28 @@
         <v>0.0059874111825759</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00163243173716808</v>
+        <v>0.00169914544685432</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0033020609749344</v>
+        <v>0.00319231692250053</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00867276139021739</v>
+        <v>0.00878250544265126</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00278784497772645</v>
+        <v>0.00265708610674142</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00918697738742534</v>
+        <v>0.00931773625841037</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00178226702763091</v>
+        <v>0.00161041251147916</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0101925553375209</v>
+        <v>0.0103644098536726</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
         <v>30</v>
@@ -2525,25 +2525,25 @@
         <v>-1700.61513034433</v>
       </c>
       <c r="B50" t="n">
-        <v>2177.9162229985</v>
+        <v>2051.07817556968</v>
       </c>
       <c r="C50" t="n">
-        <v>-5283.28731717686</v>
+        <v>-5074.63872915645</v>
       </c>
       <c r="D50" t="n">
-        <v>1882.0570564882</v>
+        <v>1673.4084684678</v>
       </c>
       <c r="E50" t="n">
-        <v>-5969.33092742139</v>
+        <v>-5720.7283544609</v>
       </c>
       <c r="F50" t="n">
-        <v>2568.10066673273</v>
+        <v>2319.49809377224</v>
       </c>
       <c r="G50" t="n">
-        <v>-7310.92732078846</v>
+        <v>-6984.19251061182</v>
       </c>
       <c r="H50" t="n">
-        <v>3909.69706009981</v>
+        <v>3582.96224992317</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
